--- a/DataGenerator/XLSXS/EnemyData.xlsx
+++ b/DataGenerator/XLSXS/EnemyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunja\Documents\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F59A850-50ED-4D1D-8F75-121A7BC44714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96F0F05-A2CE-4B55-8125-7B3A4439E5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5805" yWindow="345" windowWidth="21600" windowHeight="13335" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>enemyID</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>CharID</t>
-  </si>
-  <si>
-    <t>MosterType</t>
   </si>
   <si>
     <t>드랍테이블그룹아이디</t>
@@ -52,9 +49,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>eMosterType</t>
-  </si>
-  <si>
     <t>전투력측정기M</t>
   </si>
   <si>
@@ -68,6 +62,19 @@
   </si>
   <si>
     <t>지원봇 S1</t>
+  </si>
+  <si>
+    <t>MonsterType</t>
+  </si>
+  <si>
+    <t>NORMAL</t>
+  </si>
+  <si>
+    <t>BOSS</t>
+  </si>
+  <si>
+    <t>eMonsterType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -439,7 +446,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -460,10 +467,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -489,19 +496,19 @@
     </row>
     <row r="2" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -525,21 +532,21 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -568,12 +575,14 @@
         <v>210000</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5">
         <v>10000</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E4" s="4">
         <v>300000</v>
       </c>
@@ -604,12 +613,14 @@
         <v>210100</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5">
         <v>10100</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E5" s="4">
         <v>300000</v>
       </c>
@@ -640,12 +651,14 @@
         <v>210200</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5">
         <v>10200</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E6" s="4">
         <v>300000</v>
       </c>
@@ -676,12 +689,14 @@
         <v>210300</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5">
         <v>10300</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E7" s="4">
         <v>300000</v>
       </c>
@@ -712,12 +727,14 @@
         <v>210400</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="5">
         <v>10400</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="E8" s="4">
         <v>300000</v>
       </c>
